--- a/youtube-uploader/[Accounts].xlsx
+++ b/youtube-uploader/[Accounts].xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZennoPoster\[Templates]\YouTube\YouTube-Uploader\YouTube-Uploader v5\YouTube-Uploader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZennoPoster\[Templates]\YouTube\YouTube-Uploader\YouTube-Uploader v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002689F1-7226-4E90-BEBD-E695A45465EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF56BD39-2827-4922-AED8-3A45BF01C5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="1" r:id="rId1"/>
@@ -901,17 +901,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="38.07421875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="69.84375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.3828125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.84375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.07421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52.84375" style="1" customWidth="1"/>
     <col min="7" max="7" width="27.07421875" style="1" customWidth="1"/>
     <col min="8" max="8" width="58.23046875" style="1" bestFit="1" customWidth="1"/>
@@ -1183,7 +1183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
